--- a/b.xlsx
+++ b/b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SampleProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74323F43-2C2E-493F-AA40-634862EDC8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800279DA-A127-4E15-998A-5483A6AEF3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,15 +337,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>6</v>
       </c>
@@ -360,6 +360,9 @@
       </c>
       <c r="E1">
         <v>10</v>
+      </c>
+      <c r="F1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/b.xlsx
+++ b/b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SampleProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800279DA-A127-4E15-998A-5483A6AEF3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B7F3B4-CC1D-4CB2-86CE-3C9A7931341D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -365,6 +365,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
